--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE2FD7F-5288-480C-9D5E-77E42EAB1A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D61FE-9FB2-40E1-B338-12E1DF24A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="570" windowWidth="15465" windowHeight="20310" xr2:uid="{0F869611-3E8F-40B1-87F4-CE76918F9629}"/>
+    <workbookView xWindow="19080" yWindow="525" windowWidth="18750" windowHeight="18990" xr2:uid="{0F869611-3E8F-40B1-87F4-CE76918F9629}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="CheckList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -27,16 +27,339 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
+  <si>
+    <t>Группа проверок/модуль</t>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Установка / удаление приложения</t>
+  </si>
+  <si>
+    <t>Сохранение авторизации после повторного открытия приложения</t>
+  </si>
+  <si>
+    <t>Запуск приложения</t>
+  </si>
+  <si>
+    <t>Свернуть/развернуть приложение</t>
+  </si>
+  <si>
+    <t>Закрыть приложение</t>
+  </si>
+  <si>
+    <t>Удалить приложение</t>
+  </si>
+  <si>
+    <t>Повторно установить приложение</t>
+  </si>
+  <si>
+    <t>Экран авторизации</t>
+  </si>
+  <si>
+    <t>Наличие активных элементов: логин, пароль, кнопка войти</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• Логин: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>login2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">• Пароль: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>password2</t>
+    </r>
+  </si>
+  <si>
+    <t>Вход с валидными логином и паролем</t>
+  </si>
+  <si>
+    <t>Вход с валидным логином и не валидным паролем</t>
+  </si>
+  <si>
+    <t>Вход с невалидным логином и валидным паролем</t>
+  </si>
+  <si>
+    <t>Вход с невалидным логином и невалидным паролем</t>
+  </si>
+  <si>
+    <t>Поле пароль шифрует данные</t>
+  </si>
+  <si>
+    <t>Вход с пустым полем логин и валидным паролем</t>
+  </si>
+  <si>
+    <t>Вход с зарегистрированным логином и пустым полем пароль</t>
+  </si>
+  <si>
+    <t>Поле логин принимает любые символы</t>
+  </si>
+  <si>
+    <t>Поле пароль принимает любые символы</t>
+  </si>
+  <si>
+    <t>Выход из аккаунта</t>
+  </si>
+  <si>
+    <t>Главный экран</t>
+  </si>
+  <si>
+    <t>AppBar</t>
+  </si>
+  <si>
+    <t>Кнопка "Бургер меню"</t>
+  </si>
+  <si>
+    <t>• Главная</t>
+  </si>
+  <si>
+    <t>• Новости</t>
+  </si>
+  <si>
+    <t>• О приложении</t>
+  </si>
+  <si>
+    <t>ImageView "вхосписе" (in_hospice_trademark.png)</t>
+  </si>
+  <si>
+    <t>Кнопка "Цитаты"</t>
+  </si>
+  <si>
+    <t>• главная цитата</t>
+  </si>
+  <si>
+    <t>• список цитат</t>
+  </si>
+  <si>
+    <t>• кнопка развернуть/свернуть у каждой цитаты</t>
+  </si>
+  <si>
+    <t>Личный кабинет</t>
+  </si>
+  <si>
+    <t>• Кнопка "Выйти"</t>
+  </si>
+  <si>
+    <t>Блок Новости</t>
+  </si>
+  <si>
+    <t>• кнопка свернуть/развернуть новости</t>
+  </si>
+  <si>
+    <t>• переход на страницу "Все новости"</t>
+  </si>
+  <si>
+    <t>Экран новости</t>
+  </si>
+  <si>
+    <t>Навигационная панель</t>
+  </si>
+  <si>
+    <t>• кнопка сортировки новостей</t>
+  </si>
+  <si>
+    <t>• кнопка фильтровать новости</t>
+  </si>
+  <si>
+    <t>• кнопка панель управления</t>
+  </si>
+  <si>
+    <t>Кнопка "Обновить"</t>
+  </si>
+  <si>
+    <t>Отображение последних новостей</t>
+  </si>
+  <si>
+    <t>Экран новости. Сортировка новостей</t>
+  </si>
+  <si>
+    <t>Сортировка новостей по дате публикации</t>
+  </si>
+  <si>
+    <t>Выбор категории из выпадающего списка</t>
+  </si>
+  <si>
+    <t>Выбор категории методом ввода названия</t>
+  </si>
+  <si>
+    <t>Установка приложения</t>
+  </si>
+  <si>
+    <t>Авторизация в приложении</t>
+  </si>
+  <si>
+    <t>Кнопка "Фильтровать"</t>
+  </si>
+  <si>
+    <t>Кнопка "Отмена"</t>
+  </si>
+  <si>
+    <t>Выбор даты начала</t>
+  </si>
+  <si>
+    <t>Выбор даты конца</t>
+  </si>
+  <si>
+    <t>Экран новости. Панель управления</t>
+  </si>
+  <si>
+    <t>Экран новости. Фильтр новостей</t>
+  </si>
+  <si>
+    <t>• кнопка создание новости</t>
+  </si>
+  <si>
+    <t>Отображение списка всех созданных новостей</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть категория</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть дата публикации</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть дата создания</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть автор</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть статус (активна/не активна)</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть кнопка удалить</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть кнопка редактирования</t>
+  </si>
+  <si>
+    <t>• у каждой новости есть кнопка свернуть/развернуть описание</t>
+  </si>
+  <si>
+    <t>Панель управления новостями. Фильтр новостей</t>
+  </si>
+  <si>
+    <t>Открытие фильтра через кнопку в навигационной панели</t>
+  </si>
+  <si>
+    <t>Чек бокс "Активна"</t>
+  </si>
+  <si>
+    <t>Чек бокс "Не активна"</t>
+  </si>
+  <si>
+    <t>Панель управления новостями. Создание новости</t>
+  </si>
+  <si>
+    <t>Открытие создания новости через кнопку в навигационной панели</t>
+  </si>
+  <si>
+    <t>Ввод заголовка в поле</t>
+  </si>
+  <si>
+    <t>Выбор даты публикации</t>
+  </si>
+  <si>
+    <t>Выбор времени публикации</t>
+  </si>
+  <si>
+    <t>Ввод описания в поле</t>
+  </si>
+  <si>
+    <t>Выбор статуса переключателем (активна/не активна)</t>
+  </si>
+  <si>
+    <t>Кнопка "Сохранить"</t>
+  </si>
+  <si>
+    <t>Отображение созданной новости на экране новости</t>
+  </si>
+  <si>
+    <t>Можно отредактировать созданную новость</t>
+  </si>
+  <si>
+    <t>Можно удалить созданную новость</t>
+  </si>
+  <si>
+    <t>Открытие экрана через кнопку "бургер меню"</t>
+  </si>
+  <si>
+    <t>Есть отображение текущей версии приложения</t>
+  </si>
+  <si>
+    <t>Переход по ссылке "Политика конфиденциальности"</t>
+  </si>
+  <si>
+    <t>Переход по ссылке "Пользовательское соглашение"</t>
+  </si>
+  <si>
+    <t>Есть отображение копирайта</t>
+  </si>
+  <si>
+    <t>Экран "О приложении"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +368,56 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,14 +425,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Акцент1" xfId="1" builtinId="29"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,12 +940,1899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290434C-5EDE-4993-A621-05B14D2DE2CB}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="11">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="11">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="33"/>
+      <c r="C14" s="11">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="38"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="8">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="8">
+        <v>6</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="8">
+        <v>7</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="8">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="8">
+        <v>9</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+      <c r="C26" s="8">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="39"/>
+      <c r="C27" s="8">
+        <v>11</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="11">
+        <v>3</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="20"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="11">
+        <v>4</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="35"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="35"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="20"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="11">
+        <v>2</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="11">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="28">
+        <v>1</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="35"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="35"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="24"/>
+    </row>
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="11">
+        <v>2</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="11">
+        <v>3</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="11">
+        <v>4</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="11">
+        <v>5</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="11">
+        <v>6</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
+      <c r="C57" s="11">
+        <v>7</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="35"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="35"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="35"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="35"/>
+      <c r="C62" s="8">
+        <v>2</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="35"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="37"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="37"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="35"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="37"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="35"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="37"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="35"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="37"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="39"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="38"/>
+    </row>
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="15"/>
+      <c r="C72" s="11">
+        <v>2</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="15"/>
+      <c r="C73" s="11">
+        <v>3</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="15"/>
+      <c r="C74" s="11">
+        <v>4</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="15"/>
+      <c r="C75" s="11">
+        <v>5</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="15"/>
+      <c r="C76" s="11">
+        <v>6</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="15"/>
+      <c r="C77" s="11">
+        <v>7</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="15"/>
+      <c r="C78" s="11">
+        <v>8</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="16"/>
+      <c r="C79" s="11">
+        <v>9</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="8">
+        <v>1</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="35"/>
+      <c r="C81" s="8">
+        <v>2</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="35"/>
+      <c r="C82" s="8">
+        <v>3</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="35"/>
+      <c r="C83" s="8">
+        <v>4</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="35"/>
+      <c r="C84" s="8">
+        <v>5</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="35"/>
+      <c r="C85" s="8">
+        <v>6</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="35"/>
+      <c r="C86" s="8">
+        <v>7</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="35"/>
+      <c r="C87" s="8">
+        <v>8</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="35"/>
+      <c r="C88" s="8">
+        <v>9</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="35"/>
+      <c r="C89" s="8">
+        <v>10</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="35"/>
+      <c r="C90" s="8">
+        <v>11</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="35"/>
+      <c r="C91" s="8">
+        <v>12</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="39"/>
+      <c r="C92" s="8">
+        <v>13</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="15"/>
+      <c r="C94" s="11">
+        <v>2</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="15"/>
+      <c r="C95" s="11">
+        <v>3</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="15"/>
+      <c r="C96" s="11">
+        <v>4</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="15"/>
+      <c r="C97" s="11">
+        <v>5</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="15"/>
+      <c r="C98" s="11">
+        <v>6</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E70"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="B80:B92"/>
+    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B15:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E38"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E16 E19:E28 E32:E33 E37 E39:E58 E62 E71:E271" xr:uid="{583D37FC-DA24-4045-B6D9-10148C957D5D}">
+      <formula1>$E$1:$E$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903D61FE-9FB2-40E1-B338-12E1DF24A142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5620CD6E-4ED4-409A-8F11-B0FD2642C186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="525" windowWidth="18750" windowHeight="18990" xr2:uid="{0F869611-3E8F-40B1-87F4-CE76918F9629}"/>
+    <workbookView xWindow="375" yWindow="720" windowWidth="18750" windowHeight="18990" xr2:uid="{0F869611-3E8F-40B1-87F4-CE76918F9629}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckList" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="106">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -130,24 +130,9 @@
     <t>Вход с валидными логином и паролем</t>
   </si>
   <si>
-    <t>Вход с валидным логином и не валидным паролем</t>
-  </si>
-  <si>
-    <t>Вход с невалидным логином и валидным паролем</t>
-  </si>
-  <si>
-    <t>Вход с невалидным логином и невалидным паролем</t>
-  </si>
-  <si>
     <t>Поле пароль шифрует данные</t>
   </si>
   <si>
-    <t>Вход с пустым полем логин и валидным паролем</t>
-  </si>
-  <si>
-    <t>Вход с зарегистрированным логином и пустым полем пароль</t>
-  </si>
-  <si>
     <t>Поле логин принимает любые символы</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>AppBar</t>
   </si>
   <si>
-    <t>Кнопка "Бургер меню"</t>
-  </si>
-  <si>
     <t>• Главная</t>
   </si>
   <si>
@@ -175,12 +157,6 @@
     <t>• О приложении</t>
   </si>
   <si>
-    <t>ImageView "вхосписе" (in_hospice_trademark.png)</t>
-  </si>
-  <si>
-    <t>Кнопка "Цитаты"</t>
-  </si>
-  <si>
     <t>• главная цитата</t>
   </si>
   <si>
@@ -193,15 +169,9 @@
     <t>Личный кабинет</t>
   </si>
   <si>
-    <t>• Кнопка "Выйти"</t>
-  </si>
-  <si>
     <t>Блок Новости</t>
   </si>
   <si>
-    <t>• кнопка свернуть/развернуть новости</t>
-  </si>
-  <si>
     <t>• переход на страницу "Все новости"</t>
   </si>
   <si>
@@ -211,27 +181,12 @@
     <t>Навигационная панель</t>
   </si>
   <si>
-    <t>• кнопка сортировки новостей</t>
-  </si>
-  <si>
-    <t>• кнопка фильтровать новости</t>
-  </si>
-  <si>
-    <t>• кнопка панель управления</t>
-  </si>
-  <si>
-    <t>Кнопка "Обновить"</t>
-  </si>
-  <si>
     <t>Отображение последних новостей</t>
   </si>
   <si>
     <t>Экран новости. Сортировка новостей</t>
   </si>
   <si>
-    <t>Сортировка новостей по дате публикации</t>
-  </si>
-  <si>
     <t>Выбор категории из выпадающего списка</t>
   </si>
   <si>
@@ -262,9 +217,6 @@
     <t>Экран новости. Фильтр новостей</t>
   </si>
   <si>
-    <t>• кнопка создание новости</t>
-  </si>
-  <si>
     <t>Отображение списка всех созданных новостей</t>
   </si>
   <si>
@@ -353,6 +305,93 @@
   </si>
   <si>
     <t>Экран "О приложении"</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>ок</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Нельзя войти с валидным логином и не валидным паролем</t>
+  </si>
+  <si>
+    <t>Нельзя войти  с невалидным логином и валидным паролем</t>
+  </si>
+  <si>
+    <t>Нельзя войти  с невалидным логином и невалидным паролем</t>
+  </si>
+  <si>
+    <t>Нельзя войти  с пустым полем логин и валидным паролем</t>
+  </si>
+  <si>
+    <t>Нельзя войти  с зарегистрированным логином и пустым полем пароль</t>
+  </si>
+  <si>
+    <t>Кнопка "Бургер меню" и подэлементы работают</t>
+  </si>
+  <si>
+    <t>Отображается ImageView "вхосписе" (in_hospice_trademark.png)</t>
+  </si>
+  <si>
+    <t>Кнопка "Цитаты" и подэлементы активны</t>
+  </si>
+  <si>
+    <t>• Кнопка "Выйти" работает</t>
+  </si>
+  <si>
+    <t>• кнопка свернуть/развернуть новости активна</t>
+  </si>
+  <si>
+    <t>• кнопка сортировки новостей активна</t>
+  </si>
+  <si>
+    <t>• кнопка фильтровать новости активна</t>
+  </si>
+  <si>
+    <t>• кнопка панель управления активна</t>
+  </si>
+  <si>
+    <t>новости не отображаются, есть только кнопка обновить</t>
+  </si>
+  <si>
+    <t>Кнопка "Обновить" активна</t>
+  </si>
+  <si>
+    <t>не возможно проверить правильность работы, т.к. не отображаются новости</t>
+  </si>
+  <si>
+    <t>Сортировка новостей по дате публикации, по нажатию на кнопку</t>
+  </si>
+  <si>
+    <t>кнопка нажимается, но не возможно проверить правильность работы, т.к. не отображаются новости</t>
+  </si>
+  <si>
+    <t>Кнопка "Фильтровать" активна</t>
+  </si>
+  <si>
+    <t>Кнопка "Отмена" активна, переход на предыдущий экран</t>
+  </si>
+  <si>
+    <t>• кнопка создание новости активна</t>
+  </si>
+  <si>
+    <t>свитч не активен, по умолчанию стоит статус активна</t>
+  </si>
+  <si>
+    <t>Кнопка "Отмена", возвращает на предыдущий экран</t>
+  </si>
+  <si>
+    <t>ошибка 502 Bad gateway</t>
+  </si>
+  <si>
+    <t>ошибка 504 Gateway Time-out</t>
   </si>
 </sst>
 </file>
@@ -524,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,21 +585,42 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -571,31 +631,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -607,23 +652,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -943,10 +988,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:E232"/>
+  <dimension ref="B1:G231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,26 +1000,27 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.5703125" customWidth="1"/>
     <col min="4" max="4" width="69.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,23 +1031,33 @@
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="F7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
       <c r="C8" s="11">
         <v>2</v>
       </c>
@@ -1011,21 +1067,29 @@
       <c r="E8" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="F8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
       <c r="C9" s="11">
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="F9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
       <c r="C10" s="11">
         <v>4</v>
       </c>
@@ -1035,9 +1099,13 @@
       <c r="E10" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="F10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
       <c r="C11" s="11">
         <v>5</v>
       </c>
@@ -1047,9 +1115,13 @@
       <c r="E11" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="F11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
       <c r="C12" s="11">
         <v>6</v>
       </c>
@@ -1059,9 +1131,13 @@
       <c r="E12" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="F12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
@@ -1071,9 +1147,13 @@
       <c r="E13" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
+      <c r="F13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
       <c r="C14" s="11">
         <v>8</v>
       </c>
@@ -1083,9 +1163,13 @@
       <c r="E14" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="F14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8">
@@ -1097,1727 +1181,2301 @@
       <c r="E15" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
+      <c r="F15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
+      <c r="E16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="37"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
       <c r="C19" s="8">
         <v>3</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="F19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
       <c r="C20" s="8">
         <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
+      <c r="F20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
       <c r="C21" s="8">
         <v>5</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
+      <c r="F21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
       <c r="C22" s="8">
         <v>6</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
       <c r="C23" s="8">
         <v>7</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+      <c r="F23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
       <c r="C24" s="8">
         <v>8</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
+      <c r="F24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
       <c r="C25" s="8">
         <v>9</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
+      <c r="F25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
       <c r="C26" s="8">
         <v>10</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
+      <c r="F26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="25"/>
       <c r="C27" s="8">
         <v>11</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>28</v>
+      <c r="F27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="20"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
       <c r="C32" s="11">
         <v>2</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
+      <c r="F32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="18"/>
       <c r="C33" s="11">
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="18"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="18"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="18"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="18"/>
       <c r="C37" s="11">
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
-        <v>27</v>
+        <v>89</v>
+      </c>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
+        <v>31</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="35"/>
+        <v>90</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="20"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
       <c r="C46" s="11">
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B47" s="18"/>
       <c r="C47" s="11">
         <v>3</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="28">
+      <c r="F47" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="31">
         <v>1</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="24"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="24"/>
-    </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="D48" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
       <c r="C51" s="11">
+        <v>2</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="18"/>
+      <c r="C52" s="11">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="18"/>
+      <c r="C53" s="11">
+        <v>4</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="18"/>
+      <c r="C54" s="11">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="C55" s="11">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="22"/>
+      <c r="C56" s="11">
+        <v>7</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="8">
         <v>1</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="11">
-        <v>2</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="11">
-        <v>3</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="11">
-        <v>4</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="11">
-        <v>5</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="11">
-        <v>6</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="16"/>
-      <c r="C57" s="11">
-        <v>7</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
+      <c r="D57" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="24"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="35"/>
+        <v>91</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="24"/>
       <c r="C59" s="8"/>
       <c r="D59" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="37"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="35"/>
+        <v>92</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="24"/>
       <c r="C60" s="8"/>
       <c r="D60" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="37"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="35"/>
-      <c r="C61" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="24"/>
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
       <c r="D61" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="8">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="19"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="24"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="35"/>
+        <v>48</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="24"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E63" s="37"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="24"/>
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E64" s="37"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="35"/>
+        <v>50</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="24"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" s="37"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="24"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="37"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="35"/>
+        <v>52</v>
+      </c>
+      <c r="E66" s="20"/>
+      <c r="F66" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="24"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="37"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="35"/>
+        <v>53</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="24"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="37"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="25"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="21"/>
+    </row>
+    <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="18"/>
+      <c r="C71" s="11">
+        <v>2</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="18"/>
+      <c r="C72" s="11">
+        <v>3</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
+      <c r="C73" s="11">
+        <v>4</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
+      <c r="C74" s="11">
+        <v>5</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
+      <c r="C75" s="11">
+        <v>6</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="11">
+        <v>7</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="18"/>
+      <c r="C77" s="11">
+        <v>8</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="22"/>
+      <c r="C78" s="11">
+        <v>9</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
+      <c r="C80" s="8">
+        <v>2</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="24"/>
+      <c r="C81" s="8">
+        <v>3</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="24"/>
+      <c r="C82" s="8">
+        <v>4</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="24"/>
+      <c r="C83" s="8">
+        <v>5</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="24"/>
+      <c r="C84" s="8">
+        <v>6</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="24"/>
+      <c r="C85" s="8">
+        <v>7</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B86" s="24"/>
+      <c r="C86" s="8">
+        <v>8</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="24"/>
+      <c r="C87" s="8">
+        <v>9</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+      <c r="C88" s="8">
+        <v>10</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="24"/>
+      <c r="C89" s="8">
+        <v>11</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="24"/>
+      <c r="C90" s="8">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="25"/>
+      <c r="C91" s="8">
+        <v>13</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="37"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9" t="s">
+      <c r="E91" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" s="11">
+        <v>1</v>
+      </c>
+      <c r="D92" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="38"/>
-    </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
+      <c r="E92" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="18"/>
+      <c r="C93" s="11">
+        <v>2</v>
+      </c>
+      <c r="D93" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" s="12" t="s">
+      <c r="E93" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="18"/>
+      <c r="C94" s="11">
+        <v>3</v>
+      </c>
+      <c r="D94" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="15"/>
-      <c r="C72" s="11">
-        <v>2</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="15"/>
-      <c r="C73" s="11">
-        <v>3</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="15"/>
-      <c r="C74" s="11">
-        <v>4</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="15"/>
-      <c r="C75" s="11">
+      <c r="E94" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="18"/>
+      <c r="C95" s="11">
+        <v>4</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="18"/>
+      <c r="C96" s="11">
         <v>5</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="15"/>
-      <c r="C76" s="11">
+      <c r="D96" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="18"/>
+      <c r="C97" s="11">
         <v>6</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="15"/>
-      <c r="C77" s="11">
-        <v>7</v>
-      </c>
-      <c r="D77" s="12" t="s">
+      <c r="D97" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="15"/>
-      <c r="C78" s="11">
-        <v>8</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="16"/>
-      <c r="C79" s="11">
-        <v>9</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C80" s="8">
-        <v>1</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="35"/>
-      <c r="C81" s="8">
-        <v>2</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="8">
-        <v>3</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="35"/>
-      <c r="C83" s="8">
-        <v>4</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="35"/>
-      <c r="C84" s="8">
-        <v>5</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="35"/>
-      <c r="C85" s="8">
-        <v>6</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="35"/>
-      <c r="C86" s="8">
-        <v>7</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="35"/>
-      <c r="C87" s="8">
-        <v>8</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="35"/>
-      <c r="C88" s="8">
-        <v>9</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="35"/>
-      <c r="C89" s="8">
-        <v>10</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="35"/>
-      <c r="C90" s="8">
-        <v>11</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="35"/>
-      <c r="C91" s="8">
-        <v>12</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="39"/>
-      <c r="C92" s="8">
-        <v>13</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="11">
-        <v>1</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="15"/>
-      <c r="C94" s="11">
-        <v>2</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="15"/>
-      <c r="C95" s="11">
-        <v>3</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="15"/>
-      <c r="C96" s="11">
-        <v>4</v>
-      </c>
-      <c r="D96" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="15"/>
-      <c r="C97" s="11">
-        <v>5</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="15"/>
-      <c r="C98" s="11">
-        <v>6</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="7"/>
       <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="7"/>
       <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="7"/>
       <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="7"/>
       <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="7"/>
       <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="7"/>
       <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="7"/>
       <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="7"/>
       <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="7"/>
       <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="7"/>
       <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="7"/>
       <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="7"/>
       <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="7"/>
       <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="7"/>
       <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="7"/>
       <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="7"/>
       <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="7"/>
       <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="7"/>
       <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
       <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="7"/>
       <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="7"/>
       <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="7"/>
       <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="7"/>
       <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="7"/>
       <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="7"/>
       <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="7"/>
       <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="7"/>
       <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="7"/>
       <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="7"/>
       <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="7"/>
       <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="7"/>
       <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="7"/>
       <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="7"/>
       <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="7"/>
       <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="7"/>
       <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="7"/>
       <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="7"/>
       <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="7"/>
       <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="7"/>
       <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="7"/>
       <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="7"/>
       <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="7"/>
       <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="7"/>
       <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="7"/>
       <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="7"/>
       <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="7"/>
       <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="7"/>
       <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="7"/>
       <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="7"/>
       <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="7"/>
       <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="7"/>
       <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="7"/>
       <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="7"/>
       <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="7"/>
       <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="7"/>
       <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="7"/>
       <c r="E155" s="4"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="7"/>
       <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="7"/>
       <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="7"/>
       <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="7"/>
       <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="7"/>
       <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="7"/>
       <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="7"/>
       <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="7"/>
       <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="7"/>
       <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="7"/>
       <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="7"/>
       <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="7"/>
       <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="7"/>
       <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="7"/>
       <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="7"/>
       <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="7"/>
       <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="7"/>
       <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="7"/>
       <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="7"/>
       <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="7"/>
       <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="7"/>
       <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="7"/>
       <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="7"/>
       <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="7"/>
       <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="7"/>
       <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="7"/>
       <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="7"/>
       <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="7"/>
       <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="7"/>
       <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="7"/>
       <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="7"/>
       <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="7"/>
       <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="7"/>
       <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="7"/>
       <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="7"/>
       <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="7"/>
       <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="7"/>
       <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="7"/>
       <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="7"/>
       <c r="E209" s="4"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="7"/>
       <c r="E210" s="4"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="7"/>
       <c r="E211" s="4"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="7"/>
       <c r="E212" s="4"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="7"/>
       <c r="E213" s="4"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="7"/>
       <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="7"/>
       <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="7"/>
       <c r="E216" s="4"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="7"/>
       <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="7"/>
       <c r="E218" s="4"/>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="7"/>
       <c r="E219" s="4"/>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="7"/>
       <c r="E220" s="4"/>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="7"/>
       <c r="E221" s="4"/>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="7"/>
       <c r="E222" s="4"/>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="7"/>
       <c r="E223" s="4"/>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="7"/>
       <c r="E224" s="4"/>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="7"/>
       <c r="E225" s="4"/>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="7"/>
       <c r="E226" s="4"/>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="4"/>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E62:E70"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="B80:B92"/>
-    <mergeCell ref="B58:B70"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="C48:C50"/>
+  <mergeCells count="35">
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="G61:G69"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="B15:B27"/>
     <mergeCell ref="B28:B38"/>
@@ -2827,9 +3485,21 @@
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="B79:B91"/>
+    <mergeCell ref="B57:B69"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E16 E19:E28 E32:E33 E37 E39:E58 E62 E71:E271" xr:uid="{583D37FC-DA24-4045-B6D9-10148C957D5D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E16 E19:E28 E32:E33 E37 E61 E70:E270 E39:E57" xr:uid="{583D37FC-DA24-4045-B6D9-10148C957D5D}">
       <formula1>$E$1:$E$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ekate\Desktop\Netology\Git repository\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5620CD6E-4ED4-409A-8F11-B0FD2642C186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5047E225-8F67-4AAA-BA13-B5DD03899485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="720" windowWidth="18750" windowHeight="18990" xr2:uid="{0F869611-3E8F-40B1-87F4-CE76918F9629}"/>
+    <workbookView xWindow="825" yWindow="840" windowWidth="14535" windowHeight="10680" xr2:uid="{0F869611-3E8F-40B1-87F4-CE76918F9629}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckList" sheetId="1" r:id="rId1"/>
@@ -595,11 +595,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -610,7 +625,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,13 +650,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -642,33 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +990,7 @@
   </sheetPr>
   <dimension ref="B1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1039,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="11">
@@ -1057,7 +1057,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="11">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="11">
         <v>3</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="11">
         <v>4</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="11">
         <v>5</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="34"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="11">
         <v>6</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="11">
         <v>7</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="11">
         <v>8</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8">
@@ -1187,43 +1187,43 @@
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8">
         <v>2</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="21"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="8">
         <v>3</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="8">
         <v>4</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8">
         <v>5</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="8">
         <v>6</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8">
         <v>7</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="G23" s="8"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="8">
         <v>8</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="8">
         <v>9</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="8">
         <v>10</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="8">
         <v>11</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="G27" s="8"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="11">
@@ -1376,46 +1376,46 @@
       <c r="D28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="26"/>
+      <c r="E28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="11"/>
       <c r="D31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="11">
         <v>2</v>
       </c>
@@ -1431,79 +1431,79 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="11">
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="26"/>
+      <c r="E33" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="11"/>
       <c r="D36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="18"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="11">
         <v>4</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="26"/>
+      <c r="E37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="11"/>
       <c r="D38" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="8">
@@ -1512,36 +1512,36 @@
       <c r="D39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="36"/>
+      <c r="E39" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="27"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="11">
@@ -1550,46 +1550,46 @@
       <c r="D42" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="26"/>
+      <c r="E42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="18"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="18"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="11"/>
       <c r="D44" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="18"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="18"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="11">
         <v>2</v>
       </c>
@@ -1602,12 +1602,12 @@
       <c r="F46" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B47" s="18"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="11">
         <v>3</v>
       </c>
@@ -1620,18 +1620,18 @@
       <c r="F47" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="40">
         <v>1</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="38" t="s">
         <v>97</v>
       </c>
       <c r="E48" s="15" t="s">
@@ -1645,15 +1645,15 @@
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="30"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="11">
@@ -1671,7 +1671,7 @@
       <c r="G50" s="14"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="11">
         <v>2</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="G51" s="14"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="18"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="11">
         <v>3</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="G52" s="14"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="18"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="11">
         <v>4</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="G53" s="14"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="18"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="11">
         <v>5</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="G54" s="14"/>
     </row>
     <row r="55" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="11">
         <v>6</v>
       </c>
@@ -1748,12 +1748,12 @@
       <c r="F55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="11">
         <v>7</v>
       </c>
@@ -1769,7 +1769,7 @@
       <c r="G56" s="14"/>
     </row>
     <row r="57" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="32" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="8">
@@ -1778,158 +1778,158 @@
       <c r="D57" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="19"/>
+      <c r="E57" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="24"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="8"/>
       <c r="D58" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="24"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="8"/>
       <c r="D59" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="24"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="8"/>
       <c r="D60" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="24"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="8">
         <v>2</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="19"/>
+      <c r="E61" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="24"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="20"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="25"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="24"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" s="20"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="25"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="24"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="8"/>
       <c r="D64" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="20"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="24"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="20"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="25"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="24"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G66" s="20"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="25"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="24"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="8"/>
       <c r="D67" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="20"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="25"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="24"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="8"/>
       <c r="D68" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="20"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="25"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="25"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="21"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="26"/>
     </row>
     <row r="70" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="11">
@@ -1947,7 +1947,7 @@
       <c r="G70" s="14"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="11">
         <v>2</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="G71" s="14"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="18"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="11">
         <v>3</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="G72" s="14"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="11">
         <v>4</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="G73" s="14"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="11">
         <v>5</v>
       </c>
@@ -2011,7 +2011,7 @@
       <c r="G74" s="14"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="11">
         <v>6</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="11">
         <v>7</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="18"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="11">
         <v>8</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="G77" s="14"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="22"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="11">
         <v>9</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="8">
@@ -2093,7 +2093,7 @@
       <c r="G79" s="8"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="24"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="8">
         <v>2</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="G80" s="8"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="24"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="8">
         <v>3</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="24"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="8">
         <v>4</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="G82" s="8"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="24"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="8">
         <v>5</v>
       </c>
@@ -2157,7 +2157,7 @@
       <c r="G83" s="8"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="24"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="8">
         <v>6</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="24"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="8">
         <v>7</v>
       </c>
@@ -2189,7 +2189,7 @@
       <c r="G85" s="8"/>
     </row>
     <row r="86" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B86" s="24"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="8">
         <v>8</v>
       </c>
@@ -2202,12 +2202,12 @@
       <c r="F86" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G86" s="41" t="s">
+      <c r="G86" s="20" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="24"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="8">
         <v>9</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="24"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="8">
         <v>10</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="G88" s="8"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="24"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="8">
         <v>11</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="G89" s="8"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="24"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="8">
         <v>12</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="G90" s="8"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="25"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="8">
         <v>13</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="G91" s="8"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="35" t="s">
         <v>76</v>
       </c>
       <c r="C92" s="11">
@@ -2305,7 +2305,7 @@
       <c r="G92" s="14"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="18"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="11">
         <v>2</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="G93" s="14"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="18"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="11">
         <v>3</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="18"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="11">
         <v>4</v>
       </c>
@@ -2352,12 +2352,12 @@
       <c r="F95" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G95" s="38" t="s">
+      <c r="G95" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="18"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="11">
         <v>5</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="18"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="11">
         <v>6</v>
       </c>
@@ -3462,6 +3462,32 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B92:B97"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="E61:E69"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="B79:B91"/>
+    <mergeCell ref="B57:B69"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B15:B27"/>
+    <mergeCell ref="B28:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G61:G69"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F41"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="G16:G18"/>
@@ -3471,32 +3497,6 @@
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G42:G45"/>
     <mergeCell ref="G57:G60"/>
-    <mergeCell ref="G61:G69"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B15:B27"/>
-    <mergeCell ref="B28:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="E61:E69"/>
-    <mergeCell ref="B70:B78"/>
-    <mergeCell ref="B79:B91"/>
-    <mergeCell ref="B57:B69"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E16 E19:E28 E32:E33 E37 E61 E70:E270 E39:E57" xr:uid="{583D37FC-DA24-4045-B6D9-10148C957D5D}">
